--- a/application/download/pws_template/template_pws_p4k.xlsx
+++ b/application/download/pws_template/template_pws_p4k.xlsx
@@ -308,16 +308,20 @@
     <xf numFmtId="1" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -327,15 +331,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -641,8 +645,8 @@
   </sheetPr>
   <dimension ref="A1:AMK72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:G8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A36" activeCellId="1" sqref="B36 A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -679,11 +683,11 @@
       <c r="F1" s="4"/>
       <c r="G1" s="18"/>
       <c r="H1" s="6"/>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
       <c r="L1" s="6"/>
       <c r="M1" s="17"/>
       <c r="ALT1"/>
@@ -908,28 +912,28 @@
       <c r="A7" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37" t="s">
+      <c r="E7" s="30"/>
+      <c r="F7" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37" t="s">
+      <c r="G7" s="30"/>
+      <c r="H7" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37" t="s">
+      <c r="I7" s="30"/>
+      <c r="J7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="37"/>
+      <c r="K7" s="30"/>
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
       <c r="ALC7"/>
@@ -970,16 +974,16 @@
     </row>
     <row r="8" spans="1:1025" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="35"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
       <c r="ALA8"/>
@@ -1022,45 +1026,45 @@
     </row>
     <row r="9" spans="1:1025" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="35"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37" t="s">
+      <c r="B9" s="37"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="37" t="s">
+      <c r="H9" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="37" t="s">
+      <c r="J9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="37" t="s">
+      <c r="K9" s="30" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:1025" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
       <c r="ALA10"/>
@@ -1108,31 +1112,31 @@
       <c r="B11" s="24">
         <v>2</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="29">
         <v>1</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="29">
         <v>2</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="29">
         <v>3</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="29">
         <v>4</v>
       </c>
-      <c r="G11" s="38">
+      <c r="G11" s="29">
         <v>5</v>
       </c>
-      <c r="H11" s="38">
-        <v>6</v>
-      </c>
-      <c r="I11" s="38">
+      <c r="H11" s="29">
+        <v>6</v>
+      </c>
+      <c r="I11" s="29">
         <v>7</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="29">
         <v>8</v>
       </c>
-      <c r="K11" s="38">
+      <c r="K11" s="29">
         <v>9</v>
       </c>
       <c r="L11" s="17"/>
@@ -1178,15 +1182,15 @@
     <row r="12" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25"/>
       <c r="B12" s="26"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
       <c r="ALA12"/>
@@ -1230,15 +1234,15 @@
     <row r="13" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25"/>
       <c r="B13" s="26"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
       <c r="ALA13"/>
@@ -1282,15 +1286,15 @@
     <row r="14" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25"/>
       <c r="B14" s="26"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
       <c r="ALA14"/>
@@ -1334,158 +1338,158 @@
     <row r="15" spans="1:1025" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="25"/>
       <c r="B15" s="26"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
     </row>
     <row r="16" spans="1:1025" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="25"/>
       <c r="B16" s="26"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
     </row>
     <row r="17" spans="1:1025" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="25"/>
       <c r="B17" s="26"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
     </row>
     <row r="18" spans="1:1025" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="25"/>
       <c r="B18" s="26"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
     </row>
     <row r="19" spans="1:1025" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="25"/>
       <c r="B19" s="26"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
     </row>
     <row r="20" spans="1:1025" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="25"/>
       <c r="B20" s="26"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
     </row>
     <row r="21" spans="1:1025" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="25"/>
       <c r="B21" s="26"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
     </row>
     <row r="22" spans="1:1025" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="25"/>
       <c r="B22" s="26"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
     </row>
     <row r="23" spans="1:1025" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="25"/>
       <c r="B23" s="26"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
     </row>
     <row r="24" spans="1:1025" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="25"/>
       <c r="B24" s="26"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
     </row>
     <row r="25" spans="1:1025" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="25"/>
       <c r="B25" s="26"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
     </row>
     <row r="26" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="25"/>
       <c r="B26" s="26"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
       <c r="L26" s="17"/>
       <c r="M26" s="17"/>
       <c r="ALA26"/>
@@ -1529,15 +1533,15 @@
     <row r="27" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="25"/>
       <c r="B27" s="26"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
       <c r="L27" s="17"/>
       <c r="M27" s="17"/>
       <c r="ALA27"/>
@@ -1581,15 +1585,15 @@
     <row r="28" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="25"/>
       <c r="B28" s="26"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
       <c r="L28" s="17"/>
       <c r="M28" s="17"/>
       <c r="ALA28"/>
@@ -1633,15 +1637,15 @@
     <row r="29" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="25"/>
       <c r="B29" s="26"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
       <c r="L29" s="17"/>
       <c r="M29" s="17"/>
       <c r="ALA29"/>
@@ -1685,15 +1689,15 @@
     <row r="30" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="25"/>
       <c r="B30" s="26"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
       <c r="L30" s="17"/>
       <c r="M30" s="17"/>
       <c r="ALA30"/>
@@ -1737,15 +1741,15 @@
     <row r="31" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="25"/>
       <c r="B31" s="26"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
       <c r="L31" s="17"/>
       <c r="M31" s="17"/>
       <c r="ALA31"/>
@@ -1789,15 +1793,15 @@
     <row r="32" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="25"/>
       <c r="B32" s="26"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
       <c r="L32" s="17"/>
       <c r="M32" s="17"/>
       <c r="ALA32"/>
@@ -1841,15 +1845,15 @@
     <row r="33" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
       <c r="L33" s="17"/>
       <c r="M33" s="17"/>
       <c r="ALA33"/>
@@ -1895,15 +1899,15 @@
       <c r="B34" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
       <c r="L34" s="17"/>
       <c r="M34" s="17"/>
       <c r="ALA34"/>
@@ -1949,15 +1953,15 @@
       <c r="B35" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
       <c r="L35" s="17"/>
       <c r="M35" s="17"/>
       <c r="ALA35"/>
@@ -1999,19 +2003,19 @@
       <c r="AMK35"/>
     </row>
     <row r="36" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="27"/>
-      <c r="B36" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
       <c r="L36" s="17"/>
       <c r="M36" s="17"/>
       <c r="ALA36"/>
@@ -2057,39 +2061,39 @@
         <v>7</v>
       </c>
       <c r="B37" s="33"/>
-      <c r="C37" s="29" t="str">
+      <c r="C37" s="27" t="str">
         <f>IF(SUM(C12:C36)=0,"-",SUM(C12:C36))</f>
         <v>-</v>
       </c>
-      <c r="D37" s="29" t="str">
+      <c r="D37" s="27" t="str">
         <f t="shared" ref="D37:K37" si="0">IF(SUM(D12:D36)=0,"-",SUM(D12:D36))</f>
         <v>-</v>
       </c>
-      <c r="E37" s="29" t="str">
+      <c r="E37" s="27" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F37" s="29" t="str">
+      <c r="F37" s="27" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="G37" s="29" t="str">
+      <c r="G37" s="27" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="H37" s="29" t="str">
+      <c r="H37" s="27" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="I37" s="29" t="str">
+      <c r="I37" s="27" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="J37" s="29" t="str">
+      <c r="J37" s="27" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="K37" s="29" t="str">
+      <c r="K37" s="27" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
@@ -2598,6 +2602,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="H9:H10"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="I1:K1"/>
@@ -2609,11 +2618,6 @@
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
